--- a/data/neuro_count.xlsx
+++ b/data/neuro_count.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\ICH_table_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python script\GitHub\Epilepsy_table_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A41CF-B14F-4966-8BBA-5E151F2C7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA04F5B-CABB-4A2C-91E7-B3B959C9CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="3390" windowWidth="15120" windowHeight="9150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CTRL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
   <si>
     <t>CA1</t>
   </si>
@@ -388,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>15.50802</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15.06024</v>
       </c>
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>15.284130000000001</v>
       </c>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10.447760000000001</v>
       </c>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13.19444</v>
       </c>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13.42282</v>
       </c>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>12.355006666666668</v>
       </c>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10.94891</v>
       </c>
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13.461539999999999</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10.83333</v>
       </c>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>13.6</v>
       </c>
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12.210945000000001</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11.607139999999999</v>
       </c>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13.761469999999999</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12.371130000000001</v>
       </c>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12.579913333333332</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10.256410000000001</v>
       </c>
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14.15929</v>
       </c>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12.207850000000001</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>12.803702368421051</v>
       </c>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>11.21495</v>
       </c>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>12.93103</v>
       </c>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>12.072990000000001</v>
       </c>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>12.708392059496566</v>
       </c>
@@ -819,6 +819,329 @@
       </c>
       <c r="E25" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10.638299999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.7209299999999992</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.5238099999999992</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25.490200000000002</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9.8591499999999996</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.6337999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12.486510000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21.518989999999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>11.11111</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.177365</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.4156099999999991</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29.504594999999998</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>10.536186666666667</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9.4562000000000008</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10.146509999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>21.651060000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>8.0152999999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13.054510000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.5652200000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>16.054649999999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10.294119999999999</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7.3770499999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10.145200000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23.943660000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>9.375</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.0459800000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14.541532</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20.289860000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9.8345599999999997</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.7115150000000003</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7.1468100000000003</v>
+      </c>
+      <c r="D33" s="1">
+        <v>22.116759999999999</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>13.045450000000001</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14.053140000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11.23596</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26.418641000000001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>10.52632</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10.356351333333334</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25.49296</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>10.323549666666668</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9.248049</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.4530999999999992</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21.648137600000005</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>14.0564</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12.05641</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.0425500000000003</v>
+      </c>
+      <c r="D37" s="1">
+        <v>18.413512000000001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6.3157899999999998</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7.4468100000000002</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.1224499999999997</v>
+      </c>
+      <c r="D38" s="1">
+        <v>21.538460000000001</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9.4766399999999997</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.5824999999999996</v>
+      </c>
+      <c r="D39" s="1">
+        <v>19.024609999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>5.5578950000000003</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.8617249999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>24.145800000000001</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>9.1563999999999997</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10.5746</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.5040699999999996</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20.903240060000002</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>10.52632</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9.8765400000000003</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10.71429</v>
+      </c>
+      <c r="D42" s="1">
+        <v>27.543859999999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>14.81481</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10.1142</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8.6091800000000003</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24.043119999999998</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>12.670565</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9.2630813333333339</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8.7187485714285717</v>
+      </c>
+      <c r="D44" s="1">
+        <v>17.0967842033333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -832,13 +1155,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC2E67-E375-4039-A7C9-40046AECF9AD}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10.638299999999999</v>
       </c>
@@ -872,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9.8591499999999996</v>
       </c>
@@ -889,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11.11111</v>
       </c>
@@ -906,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10.536186666666667</v>
       </c>
@@ -923,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8.0152999999999999</v>
       </c>
@@ -940,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10.294119999999999</v>
       </c>
@@ -957,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>9.375</v>
       </c>
@@ -974,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9.8345599999999997</v>
       </c>
@@ -991,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13.045450000000001</v>
       </c>
@@ -1008,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10.52632</v>
       </c>
@@ -1025,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10.323549666666668</v>
       </c>
@@ -1042,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14.0564</v>
       </c>
@@ -1059,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6.3157899999999998</v>
       </c>
@@ -1076,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4.8</v>
       </c>
@@ -1093,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5.5578950000000003</v>
       </c>
@@ -1110,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9.1563999999999997</v>
       </c>
@@ -1127,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10.52632</v>
       </c>
@@ -1144,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14.81481</v>
       </c>
@@ -1161,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12.670565</v>
       </c>
